--- a/Faturados.xlsx
+++ b/Faturados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>Código Produto</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>CS-Test</t>
+  </si>
+  <si>
+    <t>PENDENTE</t>
   </si>
   <si>
     <t>FATURADO</t>
@@ -589,28 +592,28 @@
         <v>45915</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -627,34 +630,34 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2">
         <v>45915</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -671,37 +674,37 @@
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2">
         <v>45920</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Faturados.xlsx
+++ b/Faturados.xlsx
@@ -97,7 +97,7 @@
     <t>999998</t>
   </si>
   <si>
-    <t>CS-Test</t>
+    <t>999997</t>
   </si>
   <si>
     <t>PENDENTE</t>
